--- a/services/reports/titanium_base/titanium_base_actual.xlsx
+++ b/services/reports/titanium_base/titanium_base_actual.xlsx
@@ -5,19 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\excel_test\data\titanium_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\ORTOS_Production_reports\services\reports\titanium_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB0D21-7F4F-45CC-B3C9-8FE01C46DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D1F7B-0580-4895-A4EE-44467C044FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43815" yWindow="0" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +94,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,29 +119,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -140,22 +169,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,6 +210,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -497,127 +549,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="126" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/services/reports/titanium_base/titanium_base_actual.xlsx
+++ b/services/reports/titanium_base/titanium_base_actual.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\ORTOS_Production_reports\services\reports\titanium_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D1F7B-0580-4895-A4EE-44467C044FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E5C40-532F-45E8-92C1-78B8AD1607CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43815" yWindow="0" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -549,11 +549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="91.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
